--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp10</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp10</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>3.9133208312765</v>
+        <v>5.444987762545333</v>
       </c>
       <c r="R2">
-        <v>23.479924987659</v>
+        <v>32.669926575272</v>
       </c>
       <c r="S2">
-        <v>0.07980578115037487</v>
+        <v>0.12428032773515</v>
       </c>
       <c r="T2">
-        <v>0.06057901942888239</v>
+        <v>0.09402638757466605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H3">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>9.64478828948678</v>
+        <v>9.671942471786222</v>
       </c>
       <c r="R3">
-        <v>86.80309460538101</v>
+        <v>87.04748224607599</v>
       </c>
       <c r="S3">
-        <v>0.1966896905872668</v>
+        <v>0.2207593905899253</v>
       </c>
       <c r="T3">
-        <v>0.2239549895219138</v>
+        <v>0.2505288857693204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>2.172101517226667</v>
+        <v>3.106249504030666</v>
       </c>
       <c r="R4">
-        <v>19.54891365504</v>
+        <v>27.95624553627599</v>
       </c>
       <c r="S4">
-        <v>0.04429645965512216</v>
+        <v>0.07089927897424991</v>
       </c>
       <c r="T4">
-        <v>0.05043687408476194</v>
+        <v>0.08046007608465308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>6.392840224201668</v>
+        <v>3.258399443960667</v>
       </c>
       <c r="R5">
-        <v>38.35704134521</v>
+        <v>19.550396663764</v>
       </c>
       <c r="S5">
-        <v>0.1303715258366722</v>
+        <v>0.07437205893703618</v>
       </c>
       <c r="T5">
-        <v>0.09896249473144476</v>
+        <v>0.05626744124172332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H6">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>3.870165266558111</v>
+        <v>1.387391945992444</v>
       </c>
       <c r="R6">
-        <v>34.831487399023</v>
+        <v>12.486527513932</v>
       </c>
       <c r="S6">
-        <v>0.07892569395542512</v>
+        <v>0.03166683439237812</v>
       </c>
       <c r="T6">
-        <v>0.08986644348273379</v>
+        <v>0.03593712011508941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H7">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>2.224778677556556</v>
+        <v>1.545841037910667</v>
       </c>
       <c r="R7">
-        <v>20.023008098009</v>
+        <v>13.912569341196</v>
       </c>
       <c r="S7">
-        <v>0.04537072422737781</v>
+        <v>0.03528339074322807</v>
       </c>
       <c r="T7">
-        <v>0.05166005416250237</v>
+        <v>0.04004137058651532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H8">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I8">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J8">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>2.8870157316735</v>
+        <v>4.325990312837667</v>
       </c>
       <c r="R8">
-        <v>17.322094390041</v>
+        <v>25.955941877026</v>
       </c>
       <c r="S8">
-        <v>0.05887596637060537</v>
+        <v>0.09873952289788515</v>
       </c>
       <c r="T8">
-        <v>0.04469160328045202</v>
+        <v>0.07470305894847065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H9">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I9">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J9">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
-        <v>7.115352080991</v>
+        <v>7.684265101031444</v>
       </c>
       <c r="R9">
-        <v>64.038168728919</v>
+        <v>69.158385909283</v>
       </c>
       <c r="S9">
-        <v>0.1451059740476746</v>
+        <v>0.175391208723954</v>
       </c>
       <c r="T9">
-        <v>0.1652206925557991</v>
+        <v>0.1990427858037029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H10">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I10">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J10">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>1.60244751744</v>
+        <v>2.467885301070333</v>
       </c>
       <c r="R10">
-        <v>14.42202765696</v>
+        <v>22.210967709633</v>
       </c>
       <c r="S10">
-        <v>0.0326792975571244</v>
+        <v>0.05632879400382799</v>
       </c>
       <c r="T10">
-        <v>0.03720933069820535</v>
+        <v>0.06392475518616796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H11">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I11">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J11">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>4.716257902964999</v>
+        <v>2.588766962322834</v>
       </c>
       <c r="R11">
-        <v>28.29754741779</v>
+        <v>15.532601773937</v>
       </c>
       <c r="S11">
-        <v>0.09618037014613404</v>
+        <v>0.05908788422272085</v>
       </c>
       <c r="T11">
-        <v>0.07300865210229679</v>
+        <v>0.04470393990859426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H12">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I12">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J12">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>2.855178118652999</v>
+        <v>1.102269533047889</v>
       </c>
       <c r="R12">
-        <v>25.696603067877</v>
+        <v>9.920425797430999</v>
       </c>
       <c r="S12">
-        <v>0.05822669029879515</v>
+        <v>0.02515899480288719</v>
       </c>
       <c r="T12">
-        <v>0.06629812562533247</v>
+        <v>0.0285516956637726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H13">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I13">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J13">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>1.641309598299</v>
+        <v>1.228155809860333</v>
       </c>
       <c r="R13">
-        <v>14.771786384691</v>
+        <v>11.053402288743</v>
       </c>
       <c r="S13">
-        <v>0.03347182616742745</v>
+        <v>0.02803231397675709</v>
       </c>
       <c r="T13">
-        <v>0.03811172032567536</v>
+        <v>0.03181248311732385</v>
       </c>
     </row>
   </sheetData>
